--- a/test_xl_py.xlsx
+++ b/test_xl_py.xlsx
@@ -3,11 +3,10 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="26317" windowHeight="11067" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="26317" windowHeight="11067" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -39,15 +38,97 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -62,60 +143,6 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <i val="1"/>
       <color rgb="FF7F7F7F"/>
       <sz val="11"/>
@@ -124,51 +151,23 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -182,187 +181,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,65 +372,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -453,8 +393,52 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,147 +457,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -1012,10 +1011,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.88617886178862" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -1132,41 +1131,54 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>test2</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>test3</t>
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>Rudra</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Rudra</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>105</v>
+      </c>
+      <c r="C7" t="n">
+        <v>200</v>
+      </c>
+      <c r="D7" t="n">
+        <v>34</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>F</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.88617886178862" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/test_xl_py.xlsx
+++ b/test_xl_py.xlsx
@@ -3,10 +3,11 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="26317" windowHeight="11067" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="26317" windowHeight="11067" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -37,20 +38,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
@@ -60,15 +47,29 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <b val="1"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -82,8 +83,55 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <charset val="0"/>
       <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -92,29 +140,6 @@
       <charset val="0"/>
       <b val="1"/>
       <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -143,31 +168,7 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -181,187 +182,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,17 +376,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -408,11 +409,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -424,21 +431,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,17 +450,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,142 +478,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -1013,11 +1014,11 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.88617886178862" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.88617886178862" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
@@ -1158,23 +1159,60 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="0" t="inlineStr">
         <is>
           <t>Rudra</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="0" t="n">
         <v>105</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="0" t="inlineStr">
         <is>
           <t>F</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.88617886178862" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1"/>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>192.168.0.233</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
     </row>

--- a/test_xl_py.xlsx
+++ b/test_xl_py.xlsx
@@ -38,7 +38,106 @@
     <font>
       <name val="Calibri"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -52,56 +151,10 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -109,59 +162,6 @@
       <charset val="0"/>
       <color rgb="FF9C0006"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,6 +195,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -207,67 +225,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,97 +369,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,6 +380,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -397,21 +412,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -446,17 +446,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -474,6 +463,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -483,142 +483,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyAlignment="1">
@@ -1287,45 +1287,60 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C5" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="0"/>
+  <cols>
+    <col width="13.2116788321168" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>192.168.0.233</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>F</t>
+          <t>State</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>check</t>
+          <t>192.168.0.233</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>F</t>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>192.168.0.108</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>T</t>
         </is>
       </c>
     </row>

--- a/test_xl_py.xlsx
+++ b/test_xl_py.xlsx
@@ -1318,7 +1318,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/test_xl_py.xlsx
+++ b/test_xl_py.xlsx
@@ -1318,7 +1318,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/test_xl_py.xlsx
+++ b/test_xl_py.xlsx
@@ -1293,7 +1293,7 @@
       <selection activeCell="C5" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col width="13.2116788321168" customWidth="1" min="1" max="1"/>
   </cols>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/test_xl_py.xlsx
+++ b/test_xl_py.xlsx
@@ -2,379 +2,35 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
-  <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="26317" windowHeight="11067" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
-  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <color theme="1"/>
       <sz val="12"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -382,305 +38,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
@@ -1070,6 +436,7 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -1079,13 +446,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="6"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -1274,6 +641,201 @@
         <is>
           <t>F</t>
         </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>100000002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>100000002</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>300</v>
+      </c>
+      <c r="D9" t="n">
+        <v>120</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>100000002</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>300</v>
+      </c>
+      <c r="D10" t="n">
+        <v>120</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>100000002</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>300</v>
+      </c>
+      <c r="D11" t="n">
+        <v>120</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>100000002</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>300</v>
+      </c>
+      <c r="D12" t="n">
+        <v>120</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Aritra Das</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>100000002</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>300</v>
+      </c>
+      <c r="D13" t="n">
+        <v>120</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Aritra Ghosh</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>100000003</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>300</v>
+      </c>
+      <c r="D14" t="n">
+        <v>120</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Aritra Ghosh</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>100000004</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>120</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Aritra dewv</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>100000005</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>300</v>
+      </c>
+      <c r="D16" t="n">
+        <v>120</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1289,14 +851,11 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="A2:C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.75"/>
-  <cols>
-    <col width="13.2116788321168" customWidth="1" min="1" max="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
